--- a/output/VINLAND_28581109000189.xlsx
+++ b/output/VINLAND_28581109000189.xlsx
@@ -757,10 +757,10 @@
         <v>44165</v>
       </c>
       <c r="B34">
-        <v>0.1998072</v>
+        <v>0.2000059999999999</v>
       </c>
       <c r="C34">
-        <v>0.00592146984718589</v>
+        <v>0.006088144283050045</v>
       </c>
     </row>
   </sheetData>

--- a/output/VINLAND_28581109000189.xlsx
+++ b/output/VINLAND_28581109000189.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VINLAND MACRO ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43190</v>
       </c>
@@ -411,356 +405,260 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43220</v>
       </c>
       <c r="B3">
         <v>-0.001445699999999994</v>
       </c>
-      <c r="C3">
-        <v>-0.001445699999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43251</v>
       </c>
       <c r="B4">
-        <v>-0.04119669999999998</v>
-      </c>
-      <c r="C4">
         <v>-0.03980855122250238</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43281</v>
       </c>
       <c r="B5">
-        <v>-0.04262140000000003</v>
-      </c>
-      <c r="C5">
         <v>-0.001485914785650078</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43312</v>
       </c>
       <c r="B6">
-        <v>-0.03533310000000001</v>
-      </c>
-      <c r="C6">
         <v>0.007612766777949753</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43343</v>
       </c>
       <c r="B7">
-        <v>-0.03614989999999996</v>
-      </c>
-      <c r="C7">
         <v>-0.0008467171414298091</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43373</v>
       </c>
       <c r="B8">
-        <v>-0.02950969999999997</v>
-      </c>
-      <c r="C8">
         <v>0.006889245537246902</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43404</v>
       </c>
       <c r="B9">
-        <v>-0.009151299999999973</v>
-      </c>
-      <c r="C9">
         <v>0.02097743789917317</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43434</v>
       </c>
       <c r="B10">
-        <v>-0.005994399999999955</v>
-      </c>
-      <c r="C10">
         <v>0.00318605655939197</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43465</v>
       </c>
       <c r="B11">
-        <v>0.002592200000000044</v>
-      </c>
-      <c r="C11">
         <v>0.008638381916560522</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43496</v>
       </c>
       <c r="B12">
-        <v>0.03885080000000007</v>
-      </c>
-      <c r="C12">
         <v>0.03616485346684328</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43524</v>
       </c>
       <c r="B13">
-        <v>0.03455509999999995</v>
-      </c>
-      <c r="C13">
         <v>-0.004135049999480334</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43555</v>
       </c>
       <c r="B14">
-        <v>0.02372789999999991</v>
-      </c>
-      <c r="C14">
         <v>-0.01046556147661926</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43585</v>
       </c>
       <c r="B15">
-        <v>0.02093129999999999</v>
-      </c>
-      <c r="C15">
         <v>-0.002731780583492882</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43616</v>
       </c>
       <c r="B16">
-        <v>0.02590279999999989</v>
-      </c>
-      <c r="C16">
         <v>0.004869573496277368</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43646</v>
       </c>
       <c r="B17">
-        <v>0.04763080000000008</v>
-      </c>
-      <c r="C17">
         <v>0.02117939438317173</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43677</v>
       </c>
       <c r="B18">
-        <v>0.05955149999999998</v>
-      </c>
-      <c r="C18">
         <v>0.01137872235142368</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43708</v>
       </c>
       <c r="B19">
-        <v>0.0520077000000001</v>
-      </c>
-      <c r="C19">
         <v>-0.007119804936333796</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43738</v>
       </c>
       <c r="B20">
-        <v>0.07722969999999996</v>
-      </c>
-      <c r="C20">
         <v>0.0239751096878853</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43769</v>
       </c>
       <c r="B21">
-        <v>0.1079467000000001</v>
-      </c>
-      <c r="C21">
         <v>0.02851480979404863</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43799</v>
       </c>
       <c r="B22">
-        <v>0.09338329999999995</v>
-      </c>
-      <c r="C22">
         <v>-0.01314449512778915</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43830</v>
       </c>
       <c r="B23">
-        <v>0.1288426</v>
-      </c>
-      <c r="C23">
         <v>0.03243080445805235</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43861</v>
       </c>
       <c r="B24">
-        <v>0.1343586000000001</v>
-      </c>
-      <c r="C24">
         <v>0.00488642083493307</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43890</v>
       </c>
       <c r="B25">
-        <v>0.1345346000000001</v>
-      </c>
-      <c r="C25">
         <v>0.0001551537582560325</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43921</v>
       </c>
       <c r="B26">
-        <v>0.1498607999999999</v>
-      </c>
-      <c r="C26">
         <v>0.01350879911463232</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43951</v>
       </c>
       <c r="B27">
-        <v>0.1690487000000001</v>
-      </c>
-      <c r="C27">
         <v>0.01668715030549794</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43982</v>
       </c>
       <c r="B28">
-        <v>0.1825661000000001</v>
-      </c>
-      <c r="C28">
         <v>0.01156273472610669</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44012</v>
       </c>
       <c r="B29">
-        <v>0.2171632999999999</v>
-      </c>
-      <c r="C29">
         <v>0.02925603904931817</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44043</v>
       </c>
       <c r="B30">
-        <v>0.2224797000000001</v>
-      </c>
-      <c r="C30">
         <v>0.004367860910692967</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44074</v>
       </c>
       <c r="B31">
-        <v>0.2232962000000001</v>
-      </c>
-      <c r="C31">
         <v>0.000667904751301851</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44104</v>
       </c>
       <c r="B32">
-        <v>0.1962565999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.02210388620515635</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44135</v>
       </c>
       <c r="B33">
-        <v>0.1927444</v>
-      </c>
-      <c r="C33">
         <v>-0.002935992160879031</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44165</v>
       </c>
       <c r="B34">
-        <v>0.2000059999999999</v>
-      </c>
-      <c r="C34">
-        <v>0.006088144283050045</v>
+        <v>0.003260463851266104</v>
       </c>
     </row>
   </sheetData>
